--- a/xlsx/网络观察基金会_intext.xlsx
+++ b/xlsx/网络观察基金会_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_网络观察基金会</t>
+    <t>创业</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_网络观察基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
